--- a/Bayes network ICP-related lncRNA/Introduction.xlsx
+++ b/Bayes network ICP-related lncRNA/Introduction.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="21550" windowHeight="10790"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="2" r:id="rId1"/>
+    <sheet name="OutData" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Folder Name</t>
   </si>
@@ -36,6 +37,72 @@
   </si>
   <si>
     <t>File size</t>
+  </si>
+  <si>
+    <t>1.Identification of ICP-LncCRCTs</t>
+  </si>
+  <si>
+    <t>Identification of ICP-LncCRCTs</t>
+  </si>
+  <si>
+    <t>896KB</t>
+  </si>
+  <si>
+    <t>2.Immune infiltration</t>
+  </si>
+  <si>
+    <t>Investigating the relationship between ICP-LncCRCTs and immune infiltration</t>
+  </si>
+  <si>
+    <t>512KB</t>
+  </si>
+  <si>
+    <t>3.Looking for pattern varied lnc-icp</t>
+  </si>
+  <si>
+    <t>Looking for pattern varied lnc-icp</t>
+  </si>
+  <si>
+    <t>128KB</t>
+  </si>
+  <si>
+    <t>4.Predicting the immune response</t>
+  </si>
+  <si>
+    <t>Investigating the Relationship Between ICP-LncCRCT and the Immune Response</t>
+  </si>
+  <si>
+    <t>640KB</t>
+  </si>
+  <si>
+    <t>5.scRNA</t>
+  </si>
+  <si>
+    <t>Analysis in single-cell datasets</t>
+  </si>
+  <si>
+    <t>6.survival analysis</t>
+  </si>
+  <si>
+    <t>Conducting survival analysis</t>
+  </si>
+  <si>
+    <t>256KB</t>
+  </si>
+  <si>
+    <t>7.UMAP and tSNE</t>
+  </si>
+  <si>
+    <t>Analyze whether different types of cancer can be well differentiated using ICP-LncCRCTs</t>
+  </si>
+  <si>
+    <t>8.permutation.R</t>
+  </si>
+  <si>
+    <t>Permutation for solving sample size problems</t>
+  </si>
+  <si>
+    <t>16KB</t>
   </si>
   <si>
     <t>1.Network</t>
@@ -1095,10 +1162,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="99.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="10.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1121,156 +1309,156 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
